--- a/results/I3_N5_M3_T15_C100_DepCentral_s0_P1_res.xlsx
+++ b/results/I3_N5_M3_T15_C100_DepCentral_s0_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1843.918292970747</v>
+        <v>858.3977085871632</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006000041961669922</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.70842812148697</v>
+        <v>18.39770858716315</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.146845345270654</v>
+        <v>3.568767294178761</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.226710194524355</v>
+        <v>3.568767294178761</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1608.100000000006</v>
+        <v>544</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>213.03</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -799,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -810,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -857,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -868,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -901,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -912,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -984,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>11.43123270582125</v>
       </c>
     </row>
     <row r="4">
@@ -992,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>7.544884805799947</v>
       </c>
     </row>
     <row r="5">
@@ -1000,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.87750147232089</v>
+        <v>12.37739353073907</v>
       </c>
     </row>
     <row r="6">
@@ -1016,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.7338617375427</v>
+        <v>4.360391125479635</v>
       </c>
     </row>
     <row r="8">
@@ -1024,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1032,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13.83692585281499</v>
+        <v>14.49989205841819</v>
       </c>
     </row>
     <row r="10">
@@ -1040,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13.57111916510008</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1086,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1100,10 +1045,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1114,10 +1059,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1128,10 +1073,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1142,141 +1087,15 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>8</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>8</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5</v>
-      </c>
-      <c r="D15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1379,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>64.12500000000065</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
@@ -1390,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>69.98000000000064</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9">
@@ -1401,7 +1220,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>68.84500000000065</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10">
@@ -1412,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>70.99000000000066</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11">
@@ -1423,7 +1242,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>70.99000000000066</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
@@ -1434,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>101.3750000000008</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -1445,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>103.0400000000008</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
@@ -1456,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>103.9250000000008</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
@@ -1467,7 +1286,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>105.4350000000008</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
@@ -1478,7 +1297,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>105.7050000000008</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
@@ -1489,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>163.67</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
@@ -1500,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>162.495</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
@@ -1511,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>168.915</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
@@ -1522,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>161.085</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1533,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>173.77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
@@ -1544,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.515</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -1555,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96.92</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -1566,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>106.645</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -1577,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>103.745</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
@@ -1588,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>100.49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -1599,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>185.7349999999998</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
@@ -1610,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>184.2649999999998</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
@@ -1621,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>198.1249999999998</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
@@ -1632,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>195.6049999999998</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
@@ -1643,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>190.9049999999998</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
@@ -1654,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>163.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1665,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>162.495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1676,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>168.915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1687,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>161.085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1698,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>173.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1709,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>101.3750000000008</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38">
@@ -1720,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>103.0400000000008</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -1731,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>103.9250000000008</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40">
@@ -1742,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>105.4350000000008</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -1753,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>105.7050000000008</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42">
@@ -1764,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>185.7349999999998</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43">
@@ -1775,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>184.2649999999998</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44">
@@ -1786,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>198.1249999999998</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45">
@@ -1797,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>195.6049999999998</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46">
@@ -1808,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>190.9049999999998</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1855,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>63.66999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1866,7 +1685,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>62.49500000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1877,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>68.91500000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1888,7 +1707,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>61.08500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1899,7 +1718,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>73.76999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1910,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.375000000000796</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1921,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3.040000000000802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1932,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>3.925000000000807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1943,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.435000000000798</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1954,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>5.705000000000794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1965,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>85.73499999999979</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
@@ -1976,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>84.26499999999982</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
@@ -1987,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>98.12499999999977</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
@@ -1998,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>95.60499999999979</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
@@ -2009,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>90.9049999999998</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2056,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2067,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2078,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2089,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2100,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2111,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10.025</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2122,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>19.025</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2133,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.79</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -2144,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>19.775</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2155,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>16.925</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2276,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2287,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -2298,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -2309,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -2320,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2334,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2361,7 +2180,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2372,7 +2191,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2383,7 +2202,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2394,7 +2213,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2405,7 +2224,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2430,141 +2249,9 @@
         <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>
